--- a/Documentation/Query/BOOK.xlsx
+++ b/Documentation/Query/BOOK.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freeware Sys\Desktop\Project\Book Bank\Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\JProjects\Book_Store\Documentation\Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="413">
   <si>
     <t>Book_No</t>
   </si>
@@ -1257,6 +1257,12 @@
   </si>
   <si>
     <t>015-05</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
@@ -1574,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1594,7 @@
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1598,8 +1604,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1618,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1620,8 +1632,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1631,8 +1646,11 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1642,8 +1660,11 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1653,8 +1674,11 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1664,8 +1688,11 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1675,8 +1702,11 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1686,8 +1716,11 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1697,8 +1730,11 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1708,8 +1744,11 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1719,8 +1758,11 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1730,8 +1772,11 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +1786,11 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1752,8 +1800,11 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1763,8 +1814,11 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1774,8 +1828,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1785,8 +1842,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1796,8 +1856,11 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1870,11 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1818,8 +1884,11 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1829,8 +1898,11 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1840,8 +1912,11 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1851,8 +1926,11 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1862,8 +1940,11 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1873,8 +1954,11 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1884,8 +1968,11 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1895,8 +1982,11 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1906,8 +1996,11 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1917,8 +2010,11 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1928,8 +2024,11 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1939,8 +2038,11 @@
       <c r="C32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1950,8 +2052,11 @@
       <c r="C33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1961,8 +2066,11 @@
       <c r="C34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1972,8 +2080,11 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1983,8 +2094,11 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1994,8 +2108,11 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2005,8 +2122,11 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2016,8 +2136,11 @@
       <c r="C39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2027,8 +2150,11 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2038,8 +2164,11 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2049,8 +2178,11 @@
       <c r="C42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2060,8 +2192,11 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2071,8 +2206,11 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2220,11 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2093,8 +2234,11 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2104,8 +2248,11 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2115,8 +2262,11 @@
       <c r="C48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2126,8 +2276,11 @@
       <c r="C49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2137,8 +2290,11 @@
       <c r="C50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2148,8 +2304,11 @@
       <c r="C51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2159,8 +2318,11 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2170,8 +2332,11 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2181,8 +2346,11 @@
       <c r="C54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -2192,8 +2360,11 @@
       <c r="C55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2203,8 +2374,11 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2214,8 +2388,11 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2225,8 +2402,11 @@
       <c r="C58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -2236,8 +2416,11 @@
       <c r="C59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -2247,8 +2430,11 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -2258,8 +2444,11 @@
       <c r="C61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -2269,8 +2458,11 @@
       <c r="C62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -2280,8 +2472,11 @@
       <c r="C63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -2291,8 +2486,11 @@
       <c r="C64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -2302,8 +2500,11 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -2313,8 +2514,11 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -2324,8 +2528,11 @@
       <c r="C67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2335,8 +2542,11 @@
       <c r="C68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -2346,8 +2556,11 @@
       <c r="C69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -2357,8 +2570,11 @@
       <c r="C70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2368,8 +2584,11 @@
       <c r="C71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -2379,8 +2598,11 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2390,8 +2612,11 @@
       <c r="C73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2401,8 +2626,11 @@
       <c r="C74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -2412,8 +2640,11 @@
       <c r="C75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -2423,8 +2654,11 @@
       <c r="C76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2434,8 +2668,11 @@
       <c r="C77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -2445,8 +2682,11 @@
       <c r="C78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -2456,8 +2696,11 @@
       <c r="C79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -2467,8 +2710,11 @@
       <c r="C80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -2478,8 +2724,11 @@
       <c r="C81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -2489,8 +2738,11 @@
       <c r="C82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>139</v>
       </c>
@@ -2500,8 +2752,11 @@
       <c r="C83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>140</v>
       </c>
@@ -2511,8 +2766,11 @@
       <c r="C84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -2522,8 +2780,11 @@
       <c r="C85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -2533,8 +2794,11 @@
       <c r="C86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -2544,8 +2808,11 @@
       <c r="C87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>144</v>
       </c>
@@ -2555,8 +2822,11 @@
       <c r="C88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -2566,8 +2836,11 @@
       <c r="C89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>146</v>
       </c>
@@ -2577,8 +2850,11 @@
       <c r="C90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -2588,8 +2864,11 @@
       <c r="C91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>148</v>
       </c>
@@ -2599,8 +2878,11 @@
       <c r="C92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>149</v>
       </c>
@@ -2610,8 +2892,11 @@
       <c r="C93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -2621,8 +2906,11 @@
       <c r="C94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -2632,8 +2920,11 @@
       <c r="C95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>152</v>
       </c>
@@ -2643,8 +2934,11 @@
       <c r="C96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -2654,8 +2948,11 @@
       <c r="C97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>154</v>
       </c>
@@ -2665,8 +2962,11 @@
       <c r="C98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -2676,8 +2976,11 @@
       <c r="C99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -2687,8 +2990,11 @@
       <c r="C100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>157</v>
       </c>
@@ -2698,8 +3004,11 @@
       <c r="C101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>158</v>
       </c>
@@ -2709,8 +3018,11 @@
       <c r="C102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>159</v>
       </c>
@@ -2720,8 +3032,11 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>160</v>
       </c>
@@ -2731,8 +3046,11 @@
       <c r="C104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>161</v>
       </c>
@@ -2742,8 +3060,11 @@
       <c r="C105" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>162</v>
       </c>
@@ -2753,8 +3074,11 @@
       <c r="C106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>163</v>
       </c>
@@ -2764,8 +3088,11 @@
       <c r="C107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -2775,8 +3102,11 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -2786,8 +3116,11 @@
       <c r="C109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>166</v>
       </c>
@@ -2797,8 +3130,11 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -2808,8 +3144,11 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -2819,8 +3158,11 @@
       <c r="C112" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>169</v>
       </c>
@@ -2830,8 +3172,11 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>170</v>
       </c>
@@ -2841,8 +3186,11 @@
       <c r="C114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>171</v>
       </c>
@@ -2852,8 +3200,11 @@
       <c r="C115" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -2863,8 +3214,11 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>173</v>
       </c>
@@ -2874,8 +3228,11 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>174</v>
       </c>
@@ -2885,8 +3242,11 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>175</v>
       </c>
@@ -2896,8 +3256,11 @@
       <c r="C119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>176</v>
       </c>
@@ -2907,8 +3270,11 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>177</v>
       </c>
@@ -2918,8 +3284,11 @@
       <c r="C121" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>225</v>
       </c>
@@ -2929,8 +3298,11 @@
       <c r="C122" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>226</v>
       </c>
@@ -2940,8 +3312,11 @@
       <c r="C123" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>227</v>
       </c>
@@ -2951,8 +3326,11 @@
       <c r="C124" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>228</v>
       </c>
@@ -2962,8 +3340,11 @@
       <c r="C125" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -2973,8 +3354,11 @@
       <c r="C126" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>230</v>
       </c>
@@ -2984,8 +3368,11 @@
       <c r="C127" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -2995,8 +3382,11 @@
       <c r="C128" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -3006,8 +3396,11 @@
       <c r="C129" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>233</v>
       </c>
@@ -3017,8 +3410,11 @@
       <c r="C130" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>234</v>
       </c>
@@ -3028,8 +3424,11 @@
       <c r="C131" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>235</v>
       </c>
@@ -3039,8 +3438,11 @@
       <c r="C132" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>236</v>
       </c>
@@ -3050,8 +3452,11 @@
       <c r="C133" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -3061,8 +3466,11 @@
       <c r="C134" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -3072,8 +3480,11 @@
       <c r="C135" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -3083,8 +3494,11 @@
       <c r="C136" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>240</v>
       </c>
@@ -3094,8 +3508,11 @@
       <c r="C137" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>241</v>
       </c>
@@ -3105,8 +3522,11 @@
       <c r="C138" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>242</v>
       </c>
@@ -3116,8 +3536,11 @@
       <c r="C139" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>243</v>
       </c>
@@ -3127,8 +3550,11 @@
       <c r="C140" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>244</v>
       </c>
@@ -3138,8 +3564,11 @@
       <c r="C141" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>266</v>
       </c>
@@ -3149,8 +3578,11 @@
       <c r="C142" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>267</v>
       </c>
@@ -3160,8 +3592,11 @@
       <c r="C143" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>268</v>
       </c>
@@ -3171,8 +3606,11 @@
       <c r="C144" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>269</v>
       </c>
@@ -3182,8 +3620,11 @@
       <c r="C145" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -3193,8 +3634,11 @@
       <c r="C146" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -3204,8 +3648,11 @@
       <c r="C147" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>272</v>
       </c>
@@ -3215,8 +3662,11 @@
       <c r="C148" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>273</v>
       </c>
@@ -3226,8 +3676,11 @@
       <c r="C149" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>274</v>
       </c>
@@ -3237,8 +3690,11 @@
       <c r="C150" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>275</v>
       </c>
@@ -3248,8 +3704,11 @@
       <c r="C151" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>276</v>
       </c>
@@ -3259,8 +3718,11 @@
       <c r="C152" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>277</v>
       </c>
@@ -3270,8 +3732,11 @@
       <c r="C153" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>278</v>
       </c>
@@ -3281,8 +3746,11 @@
       <c r="C154" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>279</v>
       </c>
@@ -3292,8 +3760,11 @@
       <c r="C155" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>280</v>
       </c>
@@ -3303,8 +3774,11 @@
       <c r="C156" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>296</v>
       </c>
@@ -3314,8 +3788,11 @@
       <c r="C157" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>297</v>
       </c>
@@ -3325,8 +3802,11 @@
       <c r="C158" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>298</v>
       </c>
@@ -3336,8 +3816,11 @@
       <c r="C159" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>299</v>
       </c>
@@ -3347,8 +3830,11 @@
       <c r="C160" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>300</v>
       </c>
@@ -3358,8 +3844,11 @@
       <c r="C161" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>301</v>
       </c>
@@ -3369,8 +3858,11 @@
       <c r="C162" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>302</v>
       </c>
@@ -3380,8 +3872,11 @@
       <c r="C163" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>303</v>
       </c>
@@ -3391,8 +3886,11 @@
       <c r="C164" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>304</v>
       </c>
@@ -3402,8 +3900,11 @@
       <c r="C165" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>305</v>
       </c>
@@ -3413,8 +3914,11 @@
       <c r="C166" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>306</v>
       </c>
@@ -3424,8 +3928,11 @@
       <c r="C167" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>307</v>
       </c>
@@ -3435,8 +3942,11 @@
       <c r="C168" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>308</v>
       </c>
@@ -3446,8 +3956,11 @@
       <c r="C169" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>309</v>
       </c>
@@ -3457,8 +3970,11 @@
       <c r="C170" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>310</v>
       </c>
@@ -3468,8 +3984,11 @@
       <c r="C171" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>311</v>
       </c>
@@ -3479,8 +3998,11 @@
       <c r="C172" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>312</v>
       </c>
@@ -3490,8 +4012,11 @@
       <c r="C173" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>313</v>
       </c>
@@ -3501,8 +4026,11 @@
       <c r="C174" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>314</v>
       </c>
@@ -3512,8 +4040,11 @@
       <c r="C175" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>315</v>
       </c>
@@ -3523,8 +4054,11 @@
       <c r="C176" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>328</v>
       </c>
@@ -3534,8 +4068,11 @@
       <c r="C177" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>329</v>
       </c>
@@ -3545,8 +4082,11 @@
       <c r="C178" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>330</v>
       </c>
@@ -3556,8 +4096,11 @@
       <c r="C179" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>331</v>
       </c>
@@ -3567,8 +4110,11 @@
       <c r="C180" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>332</v>
       </c>
@@ -3578,8 +4124,11 @@
       <c r="C181" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>348</v>
       </c>
@@ -3589,8 +4138,11 @@
       <c r="C182" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>349</v>
       </c>
@@ -3600,8 +4152,11 @@
       <c r="C183" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>350</v>
       </c>
@@ -3611,8 +4166,11 @@
       <c r="C184" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>351</v>
       </c>
@@ -3622,8 +4180,11 @@
       <c r="C185" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>352</v>
       </c>
@@ -3633,8 +4194,11 @@
       <c r="C186" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>359</v>
       </c>
@@ -3644,8 +4208,11 @@
       <c r="C187" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>360</v>
       </c>
@@ -3655,8 +4222,11 @@
       <c r="C188" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>361</v>
       </c>
@@ -3666,8 +4236,11 @@
       <c r="C189" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>362</v>
       </c>
@@ -3677,8 +4250,11 @@
       <c r="C190" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>363</v>
       </c>
@@ -3688,8 +4264,11 @@
       <c r="C191" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>364</v>
       </c>
@@ -3699,8 +4278,11 @@
       <c r="C192" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>365</v>
       </c>
@@ -3710,8 +4292,11 @@
       <c r="C193" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>366</v>
       </c>
@@ -3721,8 +4306,11 @@
       <c r="C194" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>367</v>
       </c>
@@ -3732,8 +4320,11 @@
       <c r="C195" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>368</v>
       </c>
@@ -3743,8 +4334,11 @@
       <c r="C196" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>369</v>
       </c>
@@ -3754,8 +4348,11 @@
       <c r="C197" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>370</v>
       </c>
@@ -3765,8 +4362,11 @@
       <c r="C198" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>371</v>
       </c>
@@ -3776,8 +4376,11 @@
       <c r="C199" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>372</v>
       </c>
@@ -3787,8 +4390,11 @@
       <c r="C200" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>373</v>
       </c>
@@ -3798,8 +4404,11 @@
       <c r="C201" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>374</v>
       </c>
@@ -3809,8 +4418,11 @@
       <c r="C202" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>375</v>
       </c>
@@ -3820,8 +4432,11 @@
       <c r="C203" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>376</v>
       </c>
@@ -3831,8 +4446,11 @@
       <c r="C204" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>377</v>
       </c>
@@ -3842,8 +4460,11 @@
       <c r="C205" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -3853,8 +4474,11 @@
       <c r="C206" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>401</v>
       </c>
@@ -3864,8 +4488,11 @@
       <c r="C207" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>402</v>
       </c>
@@ -3875,8 +4502,11 @@
       <c r="C208" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>403</v>
       </c>
@@ -3886,8 +4516,11 @@
       <c r="C209" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>404</v>
       </c>
@@ -3897,8 +4530,11 @@
       <c r="C210" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>405</v>
       </c>
@@ -3907,6 +4543,9 @@
       </c>
       <c r="C211" t="s">
         <v>400</v>
+      </c>
+      <c r="D211" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
